--- a/Example_scripts/Suite/Max.xlsx
+++ b/Example_scripts/Suite/Max.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365tno-my.sharepoint.com/personal/bart_davids_tno_nl/Documents/Documents/PySub/Example_scripts/Suite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{E701E17E-F52A-4463-ADCD-A5EBA99826D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAF8F45D-F576-4F22-8037-5EFDC51BAD64}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{E701E17E-F52A-4463-ADCD-A5EBA99826D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E89D6BC1-EE77-4CE8-84CC-94592BD06C2A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{555B1425-0405-477B-A81F-DC1674E6CB4A}"/>
+    <workbookView xWindow="35670" yWindow="2100" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{555B1425-0405-477B-A81F-DC1674E6CB4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Model parameters" sheetId="1" r:id="rId1"/>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A316F1A6-ED4E-4962-9A52-869AB762729B}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82A3235-637C-4DE6-ADD9-2F88DF624BFC}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:G11"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Example_scripts/Suite/Max.xlsx
+++ b/Example_scripts/Suite/Max.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365tno-my.sharepoint.com/personal/bart_davids_tno_nl/Documents/Documents/PySub/Example_scripts/Suite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{E701E17E-F52A-4463-ADCD-A5EBA99826D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E89D6BC1-EE77-4CE8-84CC-94592BD06C2A}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{E701E17E-F52A-4463-ADCD-A5EBA99826D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65812945-C71A-4E14-BBCC-8AB0902C9851}"/>
   <bookViews>
-    <workbookView xWindow="35670" yWindow="2100" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{555B1425-0405-477B-A81F-DC1674E6CB4A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{555B1425-0405-477B-A81F-DC1674E6CB4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Model parameters" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>b</t>
   </si>
   <si>
-    <t>Reference stress rate (Pa/year)</t>
-  </si>
-  <si>
     <t>Lower error (m)</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>../Tutorials/Shapefiles/Norg.shp</t>
+  </si>
+  <si>
+    <t>Reference stress rate (bar/year)</t>
   </si>
 </sst>
 </file>
@@ -531,14 +531,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -555,13 +555,13 @@
         <v>16</v>
       </c>
       <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -611,24 +611,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A316F1A6-ED4E-4962-9A52-869AB762729B}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -639,7 +639,7 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -648,19 +648,19 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" t="s">
         <v>27</v>
@@ -669,12 +669,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>6000</v>
@@ -693,12 +693,12 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>5000</v>
@@ -717,12 +717,12 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>6500</v>
@@ -756,13 +756,13 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -830,7 +830,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -898,7 +898,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -966,7 +966,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1048,9 +1048,9 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>567600</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1092,19 +1092,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82A3235-637C-4DE6-ADD9-2F88DF624BFC}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1118,16 +1118,16 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1379,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
